--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251103_201831.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251103_201831.xlsx
@@ -2889,7 +2889,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
